--- a/virtualGameServer/src/main/resources/excel/skill/SkillRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/skill/SkillRes.xlsx
@@ -4,17 +4,50 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12195"/>
+    <workbookView windowWidth="26025" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>sando</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>sando:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+敌人受到的伤害 =（技能基础伤害+攻击力x攻击力加成）x敌方防御/(100+敌方防御)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <r>
       <rPr>
@@ -47,15 +80,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻击力提升</t>
-    </r>
+    <t>基础伤害</t>
   </si>
   <si>
     <r>
@@ -74,30 +99,14 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>cd</t>
+      <t>cd/ms</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能前摇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能后摇</t>
-    </r>
+    <t>蓝耗</t>
+  </si>
+  <si>
+    <t>攻击力加成百分比</t>
   </si>
   <si>
     <t>int</t>
@@ -106,9 +115,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
@@ -118,10 +124,22 @@
     <t>skillName</t>
   </si>
   <si>
-    <t>attackUp</t>
+    <t>basicDamage</t>
   </si>
   <si>
     <t>cd</t>
+  </si>
+  <si>
+    <t>mpCost</t>
+  </si>
+  <si>
+    <t>attackPercent</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>半月斩</t>
   </si>
 </sst>
 </file>
@@ -129,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -151,20 +169,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,34 +194,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,40 +234,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,8 +300,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,27 +321,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -315,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,60 +523,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,11 +550,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,160 +590,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,34 +1101,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1118,39 +1139,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/virtualGameServer/src/main/resources/excel/skill/SkillRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/skill/SkillRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26025" windowHeight="12660" activeTab="1"/>
+    <workbookView windowWidth="26025" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -147,12 +147,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,23 +180,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +216,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -234,61 +263,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,19 +323,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -332,115 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,67 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +534,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,56 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -618,8 +594,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1193,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1234,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
